--- a/medicine/Pharmacie/Véronique_Mounier/Véronique_Mounier.xlsx
+++ b/medicine/Pharmacie/Véronique_Mounier/Véronique_Mounier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Mounier</t>
+          <t>Véronique_Mounier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Véronique Mounier (née le 25 juillet 1972 à Grenoble[réf. nécessaire]) est une présentatrice de télévision française.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Mounier</t>
+          <t>Véronique_Mounier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-En 1995, Véronique Mounier obtient son diplôme de docteure en pharmacie à la faculté de Chatenay-Malabry (Paris XI)[1].
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, Véronique Mounier obtient son diplôme de docteure en pharmacie à la faculté de Chatenay-Malabry (Paris XI).
 </t>
         </is>
       </c>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Mounier</t>
+          <t>Véronique_Mounier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Télévision
-2001 - 2004 : chroniqueuse dans les émissions C'est au programme et Télématin sur France 2
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2001 - 2004 : chroniqueuse dans les émissions C'est au programme et Télématin sur France 2
 2004 : Le Chantier sur M6 : animatrice
 2004 - 2006 : Grand Écran sur M6
 2004 - 2008 : Nouveau look pour une nouvelle vie sur M6
@@ -570,10 +592,44 @@
 2019 : Être une femme : Les Grands entretiens sur Chérie 25
 2020 : Santé Bonheur sur France 2 et France 5
 Depuis 2022 : La Santé d'abord sur IDF1
-2023 : À côté de la plaque sur DO IT TV
-Radio
-Elle présente entre septembre et décembre 2009 une émission médicale intitulée Rien de grave, mais son nouveau magazine sur la sexualité sur TF1 lui vaut, en décembre 2009, une fin de contrat prématurée à Europe 1 où elle présentait l'émission médicale Rien de grave[2]. La station déclare alors à Ozap.com[3] : « Nous considérons que cette émission consacrée à la santé, qui se veut pointue dans son domaine, est incompatible avec les projets de Véronique sur TF1 ».
-Pendant l'été 2012 elle anime l'émission On refait la chose sur RTL tous les soirs de 21 h à 23 h avec Michel Cymès[4].
+2023 : À côté de la plaque sur DO IT TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_Mounier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Mounier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synthèse des émissions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle présente entre septembre et décembre 2009 une émission médicale intitulée Rien de grave, mais son nouveau magazine sur la sexualité sur TF1 lui vaut, en décembre 2009, une fin de contrat prématurée à Europe 1 où elle présentait l'émission médicale Rien de grave. La station déclare alors à Ozap.com : « Nous considérons que cette émission consacrée à la santé, qui se veut pointue dans son domaine, est incompatible avec les projets de Véronique sur TF1 ».
+Pendant l'été 2012 elle anime l'émission On refait la chose sur RTL tous les soirs de 21 h à 23 h avec Michel Cymès.
 </t>
         </is>
       </c>
